--- a/Question_Set2/Software skills/Git.xlsx
+++ b/Question_Set2/Software skills/Git.xlsx
@@ -16,23 +16,62 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You want to initialize a repository in an existing directory. Which command achieves this?', 'ques_type': 2, 'options': ['git clone', 'git init', 'git create', 'git fetch'], 'score': 'git init'}, {'title': 'You want to create and switch to a new branch called “new-branches”.  Which command achieves this?', 'ques_type': 2, 'options': ['git branch -D new-branches ', 'git checkout new-branches', 'git checkout -b new-branches', 'git create new-branches'], 'score': 'git checkout -b new-branches'}, {'title': 'True or False: Git’s only function is as a version control tool for code.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}, {'title': 'You want to obtain an update from the remote repository origin/master. Which command(s) below achieve(s) this?', 'ques_type': 15, 'options': ['git pull origin master', 'git clone origin master', 'git fetch origin master &amp;amp git merge origin master', 'git cherry pick origin master', 'git diff origin master'], 'score': ['git pull origin master', 'git fetch origin master &amp;amp git merge origin master']}]</t>
+    <t>questions = [
+    {
+        "title": "You want to initialize a repository in an existing directory. Which command achieves this?",
+        "ques_type": 2,
+        "options": [
+            "git clone",
+            "git init",
+            "git create",
+            "git fetch"
+        ],
+        "score": "git init"
+    },
+    {
+        "title": "You want to create and switch to a new branch called \u201cnew-branches\u201d.  Which command achieves this?",
+        "ques_type": 2,
+        "options": [
+            "git branch -D new-branches ",
+            "git checkout new-branches",
+            "git checkout -b new-branches",
+            "git create new-branches"
+        ],
+        "score": "git checkout -b new-branches"
+    },
+    {
+        "title": "True or False: Git\u2019s only function is as a version control tool for code.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    },
+    {
+        "title": "You want to obtain an update from the remote repository origin/master. Which command(s) below achieve(s) this?",
+        "ques_type": 15,
+        "options": [
+            "git pull origin master",
+            "git clone origin master",
+            "git fetch origin master &amp;amp git merge origin master",
+            "git cherry pick origin master",
+            "git diff origin master"
+        ],
+        "score": [
+            "git pull origin master",
+            "git fetch origin master &amp;amp git merge origin master"
+        ]
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +95,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +395,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
